--- a/ConsoleApp1/bin/Debug/net8.0/MetaData.xlsx
+++ b/ConsoleApp1/bin/Debug/net8.0/MetaData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notso\OneDrive\Desktop\GitHub\APRIORI\ConsoleApp1\bin\Debug\net8.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otvyagis\Documents\GitHub\APRIORI\ConsoleApp1\bin\Debug\net8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993E78B2-FC68-45D3-A89C-C3FDA40FD424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F238E135-0E16-4546-BB6B-D9B69BFA63D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Тип столбца</t>
   </si>
@@ -93,12 +93,6 @@
     <t>month</t>
   </si>
   <si>
-    <t>campaign</t>
-  </si>
-  <si>
-    <t>previous</t>
-  </si>
-  <si>
     <t>poutcome</t>
   </si>
   <si>
@@ -115,12 +109,6 @@
   </si>
   <si>
     <t>jan, feb, mar, apr, may, jun, jul, aug, sep, oct, nov, dec</t>
-  </si>
-  <si>
-    <t>1, 5, 10, 15, 20, 25, 30, 35</t>
-  </si>
-  <si>
-    <t>0, 5, 10, 15, 20</t>
   </si>
   <si>
     <t>marital</t>
@@ -187,15 +175,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -493,16 +478,16 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="123.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="123.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -533,19 +518,19 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="2"/>
@@ -555,19 +540,19 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="2"/>
@@ -577,19 +562,19 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="2"/>
@@ -599,20 +584,20 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -621,19 +606,19 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2"/>
@@ -643,171 +628,143 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>13</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6">
         <v>3</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
